--- a/Code/Results/Cases/Case_3_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.44124835495195</v>
+        <v>16.59582222408542</v>
       </c>
       <c r="C2">
-        <v>10.86760559632946</v>
+        <v>10.70525454909819</v>
       </c>
       <c r="D2">
-        <v>6.278886678107165</v>
+        <v>9.898593645394611</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.75231104971234</v>
+        <v>30.64735522567415</v>
       </c>
       <c r="G2">
-        <v>23.30010122246684</v>
+        <v>30.52755002881299</v>
       </c>
       <c r="H2">
-        <v>8.800971036574978</v>
+        <v>14.72558321375142</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.939526614068478</v>
+        <v>10.45015723247472</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.747346702297042</v>
+        <v>11.57082506283825</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.23292071488198</v>
+        <v>17.64349507048993</v>
       </c>
       <c r="O2">
-        <v>14.60438016644093</v>
+        <v>22.65447234228262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.06669315579395</v>
+        <v>16.1434667583125</v>
       </c>
       <c r="C3">
-        <v>10.54866372311641</v>
+        <v>10.59953461193187</v>
       </c>
       <c r="D3">
-        <v>6.170055566882627</v>
+        <v>9.900526618958461</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.41639697742944</v>
+        <v>30.70071557058448</v>
       </c>
       <c r="G3">
-        <v>22.67000854361449</v>
+        <v>30.54584793298028</v>
       </c>
       <c r="H3">
-        <v>8.809871692183046</v>
+        <v>14.76839332506794</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.003199218009776</v>
+        <v>10.47708063343948</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.530899364942383</v>
+        <v>11.55240839342511</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.32999690195714</v>
+        <v>17.68371475885496</v>
       </c>
       <c r="O3">
-        <v>14.47954403742295</v>
+        <v>22.71400486308479</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.17157649448004</v>
+        <v>15.86098299596559</v>
       </c>
       <c r="C4">
-        <v>10.34791090421163</v>
+        <v>10.53399766320992</v>
       </c>
       <c r="D4">
-        <v>6.104787283249895</v>
+        <v>9.903018563756074</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.22571964614716</v>
+        <v>30.74077767560525</v>
       </c>
       <c r="G4">
-        <v>22.30084317427315</v>
+        <v>30.56695297631545</v>
       </c>
       <c r="H4">
-        <v>8.821370531675603</v>
+        <v>14.79712866025968</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.043979086600499</v>
+        <v>10.49455252309765</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.397426995514866</v>
+        <v>11.54251427557426</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.3932446433529</v>
+        <v>17.71017479455948</v>
       </c>
       <c r="O4">
-        <v>14.4154248116759</v>
+        <v>22.75558660528883</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.7938865843291</v>
+        <v>15.74484503987587</v>
       </c>
       <c r="C5">
-        <v>10.26495498800533</v>
+        <v>10.50715134606009</v>
       </c>
       <c r="D5">
-        <v>6.078607622441299</v>
+        <v>9.904363164122614</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.15193191116066</v>
+        <v>30.75893554952356</v>
       </c>
       <c r="G5">
-        <v>22.15500062636212</v>
+        <v>30.57803063397859</v>
       </c>
       <c r="H5">
-        <v>8.827524379874086</v>
+        <v>14.80945426412243</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.061020457210806</v>
+        <v>10.50190959232477</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.342966635255581</v>
+        <v>11.53884083322959</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.41991904991832</v>
+        <v>17.72140202363628</v>
       </c>
       <c r="O5">
-        <v>14.39237355351225</v>
+        <v>22.77379342729816</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73038909519614</v>
+        <v>15.72550368770051</v>
       </c>
       <c r="C6">
-        <v>10.25111368946097</v>
+        <v>10.50268562596113</v>
       </c>
       <c r="D6">
-        <v>6.074286507188811</v>
+        <v>9.90460633722412</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.13991563002092</v>
+        <v>30.76206121280251</v>
       </c>
       <c r="G6">
-        <v>22.13106490900313</v>
+        <v>30.58001951378466</v>
       </c>
       <c r="H6">
-        <v>8.828633443277544</v>
+        <v>14.81153810051418</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.063875719841333</v>
+        <v>10.50314556671115</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.333921608405158</v>
+        <v>11.53825259614706</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.42440226955822</v>
+        <v>17.72329316784857</v>
       </c>
       <c r="O6">
-        <v>14.38872951213719</v>
+        <v>22.7768927951371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16653524466684</v>
+        <v>15.85942063467497</v>
       </c>
       <c r="C7">
-        <v>10.34679665361362</v>
+        <v>10.53363614588352</v>
       </c>
       <c r="D7">
-        <v>6.104432489028344</v>
+        <v>9.903035363763028</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.22470868063629</v>
+        <v>30.74101514484735</v>
       </c>
       <c r="G7">
-        <v>22.29885751048505</v>
+        <v>30.56709235102965</v>
       </c>
       <c r="H7">
-        <v>8.821447645926112</v>
+        <v>14.79729239503171</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.044207199108297</v>
+        <v>10.49465078222284</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.396692702973816</v>
+        <v>11.54246327893469</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.39360075744121</v>
+        <v>17.7103244079578</v>
       </c>
       <c r="O7">
-        <v>14.41510157466123</v>
+        <v>22.75582704289029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.97787551709344</v>
+        <v>16.44093015362169</v>
       </c>
       <c r="C8">
-        <v>10.75870748577934</v>
+        <v>10.66894241847883</v>
       </c>
       <c r="D8">
-        <v>6.241055342276998</v>
+        <v>9.898989849343245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.63325840375894</v>
+        <v>30.66423736656704</v>
       </c>
       <c r="G8">
-        <v>23.07925797315364</v>
+        <v>30.53180830035782</v>
       </c>
       <c r="H8">
-        <v>8.802758045156555</v>
+        <v>14.73983552637769</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.961130999405198</v>
+        <v>10.45924549133245</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.672878144771743</v>
+        <v>11.5641834070039</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.26562684513481</v>
+        <v>17.65699693301576</v>
       </c>
       <c r="O8">
-        <v>14.55869445795354</v>
+        <v>22.67395401401322</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.12713251199766</v>
+        <v>17.53687365772846</v>
       </c>
       <c r="C9">
-        <v>11.52385101150453</v>
+        <v>10.92856050696507</v>
       </c>
       <c r="D9">
-        <v>6.520111245654395</v>
+        <v>9.901368102858571</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.55745654874982</v>
+        <v>30.57170211399112</v>
       </c>
       <c r="G9">
-        <v>24.7433788923773</v>
+        <v>30.54106288904535</v>
       </c>
       <c r="H9">
-        <v>8.816180826339428</v>
+        <v>14.64661292257668</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.811611599494453</v>
+        <v>10.39725532328552</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.206871243483556</v>
+        <v>11.61785633679192</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.04433436400809</v>
+        <v>17.56639403720446</v>
       </c>
       <c r="O9">
-        <v>14.94255511941964</v>
+        <v>22.55340662255061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.19949981522735</v>
+        <v>18.30664254789727</v>
       </c>
       <c r="C10">
-        <v>12.05579447937992</v>
+        <v>11.11481214567931</v>
       </c>
       <c r="D10">
-        <v>6.730333347140307</v>
+        <v>9.90933879147315</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.31002673241252</v>
+        <v>30.53921297711794</v>
       </c>
       <c r="G10">
-        <v>26.03816173290927</v>
+        <v>30.59574892915078</v>
       </c>
       <c r="H10">
-        <v>8.859556258990619</v>
+        <v>14.58999585269405</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.70997737039916</v>
+        <v>10.35621088959003</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.590821567168977</v>
+        <v>11.66384933621456</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.90099067560832</v>
+        <v>17.50830226268312</v>
       </c>
       <c r="O10">
-        <v>15.29023905189335</v>
+        <v>22.48936273297079</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.09077103328771</v>
+        <v>18.64759683735362</v>
       </c>
       <c r="C11">
-        <v>12.29048575251917</v>
+        <v>11.19835991752598</v>
       </c>
       <c r="D11">
-        <v>6.826771488654476</v>
+        <v>9.914300964148751</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.66789557124472</v>
+        <v>30.53215355332251</v>
       </c>
       <c r="G11">
-        <v>26.64092036591152</v>
+        <v>30.6309986717108</v>
       </c>
       <c r="H11">
-        <v>8.887196799708518</v>
+        <v>14.56682061595121</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.665544612300779</v>
+        <v>10.33850826947089</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.762992002080589</v>
+        <v>11.68615161047819</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.84024390286079</v>
+        <v>17.4837059060187</v>
       </c>
       <c r="O11">
-        <v>15.46321142087647</v>
+        <v>22.46557625974493</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.42094730264331</v>
+        <v>18.77526837661908</v>
       </c>
       <c r="C12">
-        <v>12.37825588236458</v>
+        <v>11.22981066644165</v>
       </c>
       <c r="D12">
-        <v>6.863380167915831</v>
+        <v>9.916370688695268</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.80559641428004</v>
+        <v>30.53059030880463</v>
       </c>
       <c r="G12">
-        <v>26.87099800960785</v>
+        <v>30.64583289041795</v>
       </c>
       <c r="H12">
-        <v>8.898851600101251</v>
+        <v>14.55841601666034</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.648980427892462</v>
+        <v>10.33194348647029</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.827781313563703</v>
+        <v>11.69479113203996</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.81790883816316</v>
+        <v>17.4746543734216</v>
       </c>
       <c r="O12">
-        <v>15.53087499139508</v>
+        <v>22.45733942396168</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.35016273828493</v>
+        <v>18.74783780707149</v>
       </c>
       <c r="C13">
-        <v>12.35940282571925</v>
+        <v>11.22304577403708</v>
       </c>
       <c r="D13">
-        <v>6.855492251677797</v>
+        <v>9.915916481821151</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.77584373219883</v>
+        <v>30.53087762336305</v>
       </c>
       <c r="G13">
-        <v>26.82136771254755</v>
+        <v>30.64257210188785</v>
       </c>
       <c r="H13">
-        <v>8.896287898687913</v>
+        <v>14.56020957611143</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.652536143513804</v>
+        <v>10.33335116373154</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.81384664721403</v>
+        <v>11.69292189244637</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.8226889121695</v>
+        <v>17.47659211366009</v>
       </c>
       <c r="O13">
-        <v>15.51620578025203</v>
+        <v>22.45907907885688</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.11808130153242</v>
+        <v>18.6581299407963</v>
       </c>
       <c r="C14">
-        <v>12.29772903050547</v>
+        <v>11.20095123528906</v>
       </c>
       <c r="D14">
-        <v>6.829781656164455</v>
+        <v>9.914467429494787</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.67918081824349</v>
+        <v>30.53200270137022</v>
       </c>
       <c r="G14">
-        <v>26.65981321114155</v>
+        <v>30.63218935176769</v>
       </c>
       <c r="H14">
-        <v>8.888131551948451</v>
+        <v>14.56612172007807</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.664176608919286</v>
+        <v>10.33796540150458</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.768330696710787</v>
+        <v>11.68685852355483</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.83839282498874</v>
+        <v>17.48295597177658</v>
       </c>
       <c r="O14">
-        <v>15.4687346315118</v>
+        <v>22.4648831582518</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.97497242777744</v>
+        <v>18.60299046497721</v>
       </c>
       <c r="C15">
-        <v>12.25980701166262</v>
+        <v>11.18739283178629</v>
       </c>
       <c r="D15">
-        <v>6.814044089608759</v>
+        <v>9.913604626237687</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.6202549209223</v>
+        <v>30.53283638362353</v>
       </c>
       <c r="G15">
-        <v>26.56108996873824</v>
+        <v>30.62602292322359</v>
       </c>
       <c r="H15">
-        <v>8.883291747384634</v>
+        <v>14.5697914504886</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.671340873989674</v>
+        <v>10.34080981897312</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.740396366124227</v>
+        <v>11.68316968682541</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.84809981190036</v>
+        <v>17.48688819708267</v>
       </c>
       <c r="O15">
-        <v>15.43993970867859</v>
+        <v>22.46853872121933</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.14022368608196</v>
+        <v>18.28416482673488</v>
       </c>
       <c r="C16">
-        <v>12.04030536226857</v>
+        <v>11.10932687735689</v>
       </c>
       <c r="D16">
-        <v>6.724044838766117</v>
+        <v>9.909041265303543</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.28694739701167</v>
+        <v>30.53982967967399</v>
       </c>
       <c r="G16">
-        <v>25.99903350283174</v>
+        <v>30.59365356232755</v>
       </c>
       <c r="H16">
-        <v>8.857913377289304</v>
+        <v>14.59156235766802</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.712917604328772</v>
+        <v>10.35738724873928</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.57951532092801</v>
+        <v>11.66241923384862</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.90505263689984</v>
+        <v>17.50994646607257</v>
       </c>
       <c r="O16">
-        <v>15.27923587410174</v>
+        <v>22.49102498449839</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.61500245809343</v>
+        <v>18.08612953665052</v>
       </c>
       <c r="C17">
-        <v>11.90374003990324</v>
+        <v>11.06112143058745</v>
       </c>
       <c r="D17">
-        <v>6.669020700022767</v>
+        <v>9.906583008240528</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.08641559089407</v>
+        <v>30.54609726663654</v>
       </c>
       <c r="G17">
-        <v>25.65764046881804</v>
+        <v>30.57644932006324</v>
       </c>
       <c r="H17">
-        <v>8.844406483614675</v>
+        <v>14.60557919210038</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.73888654357448</v>
+        <v>10.36780472651003</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.480144862430148</v>
+        <v>11.65003992105763</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.94115236336143</v>
+        <v>17.5245602404342</v>
       </c>
       <c r="O17">
-        <v>15.18446784927885</v>
+        <v>22.50619042882429</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.30806119273113</v>
+        <v>17.97136345760324</v>
       </c>
       <c r="C18">
-        <v>11.82450764243932</v>
+        <v>11.03328497492388</v>
       </c>
       <c r="D18">
-        <v>6.637449736428652</v>
+        <v>9.905294955360333</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.97253898567314</v>
+        <v>30.5504289170824</v>
       </c>
       <c r="G18">
-        <v>25.4625832613774</v>
+        <v>30.56753069928845</v>
       </c>
       <c r="H18">
-        <v>8.837379109033861</v>
+        <v>14.61388414230387</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.753992543313108</v>
+        <v>10.37388779115013</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.42275778955629</v>
+        <v>11.64304981186066</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.96233411295763</v>
+        <v>17.53313796679237</v>
       </c>
       <c r="O18">
-        <v>15.13135215110725</v>
+        <v>22.51541643449357</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.20330138578053</v>
+        <v>17.93236136805805</v>
       </c>
       <c r="C19">
-        <v>11.79756524750236</v>
+        <v>11.02384168191557</v>
       </c>
       <c r="D19">
-        <v>6.626774482515603</v>
+        <v>9.904880505297587</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.93423520528243</v>
+        <v>30.55202034310127</v>
       </c>
       <c r="G19">
-        <v>25.39676890996345</v>
+        <v>30.56467891498154</v>
       </c>
       <c r="H19">
-        <v>8.83512554717556</v>
+        <v>14.61673775262523</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.759136192940614</v>
+        <v>10.37596309200899</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.40328931118699</v>
+        <v>11.64070556086572</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.96957692213816</v>
+        <v>17.53607184240263</v>
       </c>
       <c r="O19">
-        <v>15.11360611573723</v>
+        <v>22.51862657974385</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.67141438534057</v>
+        <v>18.10730075226402</v>
       </c>
       <c r="C20">
-        <v>11.91834881601436</v>
+        <v>11.06626449049704</v>
       </c>
       <c r="D20">
-        <v>6.674870291867994</v>
+        <v>9.906831677194337</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.10761137166607</v>
+        <v>30.5453548591946</v>
       </c>
       <c r="G20">
-        <v>25.6938486295231</v>
+        <v>30.57817968023889</v>
       </c>
       <c r="H20">
-        <v>8.845767210700325</v>
+        <v>14.60406194080669</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.736104561599192</v>
+        <v>10.3666863321555</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.490747388352297</v>
+        <v>11.6513442810609</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.93726602195709</v>
+        <v>17.52298675402637</v>
       </c>
       <c r="O20">
-        <v>15.19441170342314</v>
+        <v>22.50452394488624</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.18644757314637</v>
+        <v>18.6845192719975</v>
       </c>
       <c r="C21">
-        <v>12.31587443144933</v>
+        <v>11.20744614833596</v>
       </c>
       <c r="D21">
-        <v>6.837331251560064</v>
+        <v>9.914887889316216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.70751418433</v>
+        <v>30.53164211802849</v>
       </c>
       <c r="G21">
-        <v>26.70721726071976</v>
+        <v>30.63519874539331</v>
       </c>
       <c r="H21">
-        <v>8.890494628875176</v>
+        <v>14.56437509894157</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.660750401240854</v>
+        <v>10.33660632443498</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.78171127231521</v>
+        <v>11.68863424826285</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.83376183824634</v>
+        <v>17.48107963060777</v>
       </c>
       <c r="O21">
-        <v>15.48261912946132</v>
+        <v>22.46315743432205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.13392562280812</v>
+        <v>19.05332307745502</v>
       </c>
       <c r="C22">
-        <v>12.56923478537411</v>
+        <v>11.29861888212042</v>
       </c>
       <c r="D22">
-        <v>6.944020246051881</v>
+        <v>9.921263623171138</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.11229095089167</v>
+        <v>30.52914944365796</v>
       </c>
       <c r="G22">
-        <v>27.38009701522698</v>
+        <v>30.68112094321479</v>
       </c>
       <c r="H22">
-        <v>8.926673672758429</v>
+        <v>14.54060215840078</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.613028100912504</v>
+        <v>10.31775620131318</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.969476527615146</v>
+        <v>11.71413484750691</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.77002611344329</v>
+        <v>17.45522113390881</v>
       </c>
       <c r="O22">
-        <v>15.68359653111809</v>
+        <v>22.44061415084669</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.63212044551207</v>
+        <v>18.85729319825918</v>
       </c>
       <c r="C23">
-        <v>12.43461738164521</v>
+        <v>11.25006436260347</v>
       </c>
       <c r="D23">
-        <v>6.887039869572659</v>
+        <v>9.917759679999213</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.8951074914713</v>
+        <v>30.52988810962419</v>
       </c>
       <c r="G23">
-        <v>27.02004594451073</v>
+        <v>30.65582168946729</v>
       </c>
       <c r="H23">
-        <v>8.90671204591432</v>
+        <v>14.5530920498919</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.638357785346088</v>
+        <v>10.32774301014003</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.869496875309025</v>
+        <v>11.70042281459074</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.80367577309344</v>
+        <v>17.46888246574311</v>
       </c>
       <c r="O23">
-        <v>15.57516718098543</v>
+        <v>22.45223442800472</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.64592608425272</v>
+        <v>18.09773208046349</v>
       </c>
       <c r="C24">
-        <v>11.91174642425265</v>
+        <v>11.06393969336096</v>
       </c>
       <c r="D24">
-        <v>6.672225492685562</v>
+        <v>9.906718863774465</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.09802435806783</v>
+        <v>30.54568823289972</v>
       </c>
       <c r="G24">
-        <v>25.67747512637515</v>
+        <v>30.57739435526984</v>
       </c>
       <c r="H24">
-        <v>8.845149731378923</v>
+        <v>14.60474712234929</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.737361747289725</v>
+        <v>10.36719166566049</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.485954785132533</v>
+        <v>11.65075418423534</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.93902170723663</v>
+        <v>17.5236975787293</v>
       </c>
       <c r="O24">
-        <v>15.18991182945214</v>
+        <v>22.50527578253326</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.31787013125994</v>
+        <v>17.2460512070159</v>
       </c>
       <c r="C25">
-        <v>11.32188717948892</v>
+        <v>10.85904361075941</v>
       </c>
       <c r="D25">
-        <v>6.443592277928804</v>
+        <v>9.899626903219394</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.29437734156346</v>
+        <v>30.59050808282389</v>
       </c>
       <c r="G25">
-        <v>24.27983600733446</v>
+        <v>30.53014687111805</v>
       </c>
       <c r="H25">
-        <v>8.806878995789512</v>
+        <v>14.66974806605624</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.850622564321485</v>
+        <v>10.41323255718859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.063632628092519</v>
+        <v>11.60216956293792</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.100911359207</v>
+        <v>17.58941327309739</v>
       </c>
       <c r="O25">
-        <v>14.82738771382441</v>
+        <v>22.58172027420047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.59582222408542</v>
+        <v>20.44124835495194</v>
       </c>
       <c r="C2">
-        <v>10.70525454909819</v>
+        <v>10.86760559632935</v>
       </c>
       <c r="D2">
-        <v>9.898593645394611</v>
+        <v>6.278886678107169</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.64735522567415</v>
+        <v>20.75231104971238</v>
       </c>
       <c r="G2">
-        <v>30.52755002881299</v>
+        <v>23.30010122246689</v>
       </c>
       <c r="H2">
-        <v>14.72558321375142</v>
+        <v>8.800971036574978</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.45015723247472</v>
+        <v>5.939526614068476</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.57082506283825</v>
+        <v>7.747346702297079</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.64349507048993</v>
+        <v>12.23292071488198</v>
       </c>
       <c r="O2">
-        <v>22.65447234228262</v>
+        <v>14.60438016644097</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.1434667583125</v>
+        <v>19.06669315579396</v>
       </c>
       <c r="C3">
-        <v>10.59953461193187</v>
+        <v>10.54866372311651</v>
       </c>
       <c r="D3">
-        <v>9.900526618958461</v>
+        <v>6.170055566882626</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.70071557058448</v>
+        <v>20.41639697742953</v>
       </c>
       <c r="G3">
-        <v>30.54584793298028</v>
+        <v>22.67000854361441</v>
       </c>
       <c r="H3">
-        <v>14.76839332506794</v>
+        <v>8.80987169218311</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.47708063343948</v>
+        <v>6.003199218009907</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.55240839342511</v>
+        <v>7.530899364942431</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.68371475885496</v>
+        <v>12.32999690195717</v>
       </c>
       <c r="O3">
-        <v>22.71400486308479</v>
+        <v>14.47954403742298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.86098299596559</v>
+        <v>18.17157649448</v>
       </c>
       <c r="C4">
-        <v>10.53399766320992</v>
+        <v>10.34791090421174</v>
       </c>
       <c r="D4">
-        <v>9.903018563756074</v>
+        <v>6.104787283250042</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.74077767560525</v>
+        <v>20.22571964614731</v>
       </c>
       <c r="G4">
-        <v>30.56695297631545</v>
+        <v>22.30084317427328</v>
       </c>
       <c r="H4">
-        <v>14.79712866025968</v>
+        <v>8.821370531675656</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.49455252309765</v>
+        <v>6.04397908660053</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.54251427557426</v>
+        <v>7.397426995514904</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.71017479455948</v>
+        <v>12.39324464335294</v>
       </c>
       <c r="O4">
-        <v>22.75558660528883</v>
+        <v>14.415424811676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.74484503987587</v>
+        <v>17.79388658432913</v>
       </c>
       <c r="C5">
-        <v>10.50715134606009</v>
+        <v>10.2649549880052</v>
       </c>
       <c r="D5">
-        <v>9.904363164122614</v>
+        <v>6.078607622441141</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.75893554952356</v>
+        <v>20.15193191116057</v>
       </c>
       <c r="G5">
-        <v>30.57803063397859</v>
+        <v>22.15500062636207</v>
       </c>
       <c r="H5">
-        <v>14.80945426412243</v>
+        <v>8.827524379874086</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50190959232477</v>
+        <v>6.061020457210806</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.53884083322959</v>
+        <v>7.342966635255601</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.72140202363628</v>
+        <v>12.41991904991832</v>
       </c>
       <c r="O5">
-        <v>22.77379342729816</v>
+        <v>14.3923735535122</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.72550368770051</v>
+        <v>17.73038909519613</v>
       </c>
       <c r="C6">
-        <v>10.50268562596113</v>
+        <v>10.25111368946086</v>
       </c>
       <c r="D6">
-        <v>9.90460633722412</v>
+        <v>6.074286507188726</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.76206121280251</v>
+        <v>20.13991563002079</v>
       </c>
       <c r="G6">
-        <v>30.58001951378466</v>
+        <v>22.13106490900297</v>
       </c>
       <c r="H6">
-        <v>14.81153810051418</v>
+        <v>8.828633443277489</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.50314556671115</v>
+        <v>6.063875719841298</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.53825259614706</v>
+        <v>7.333921608405146</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.72329316784857</v>
+        <v>12.42440226955816</v>
       </c>
       <c r="O6">
-        <v>22.7768927951371</v>
+        <v>14.38872951213711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.85942063467497</v>
+        <v>18.16653524466694</v>
       </c>
       <c r="C7">
-        <v>10.53363614588352</v>
+        <v>10.3467966536134</v>
       </c>
       <c r="D7">
-        <v>9.903035363763028</v>
+        <v>6.104432489028365</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.74101514484735</v>
+        <v>20.22470868063622</v>
       </c>
       <c r="G7">
-        <v>30.56709235102965</v>
+        <v>22.29885751048503</v>
       </c>
       <c r="H7">
-        <v>14.79729239503171</v>
+        <v>8.821447645926014</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.49465078222284</v>
+        <v>6.044207199108268</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.54246327893469</v>
+        <v>7.396692702973809</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.7103244079578</v>
+        <v>12.3936007574412</v>
       </c>
       <c r="O7">
-        <v>22.75582704289029</v>
+        <v>14.41510157466113</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.44093015362169</v>
+        <v>19.97787551709348</v>
       </c>
       <c r="C8">
-        <v>10.66894241847883</v>
+        <v>10.75870748577934</v>
       </c>
       <c r="D8">
-        <v>9.898989849343245</v>
+        <v>6.241055342276952</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.66423736656704</v>
+        <v>20.63325840375889</v>
       </c>
       <c r="G8">
-        <v>30.53180830035782</v>
+        <v>23.07925797315367</v>
       </c>
       <c r="H8">
-        <v>14.73983552637769</v>
+        <v>8.8027580451565</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.45924549133245</v>
+        <v>5.961130999405198</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.5641834070039</v>
+        <v>7.672878144771746</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.65699693301576</v>
+        <v>12.26562684513485</v>
       </c>
       <c r="O8">
-        <v>22.67395401401322</v>
+        <v>14.55869445795353</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.53687365772846</v>
+        <v>23.12713251199766</v>
       </c>
       <c r="C9">
-        <v>10.92856050696507</v>
+        <v>11.52385101150464</v>
       </c>
       <c r="D9">
-        <v>9.901368102858571</v>
+        <v>6.520111245654352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.57170211399112</v>
+        <v>21.55745654874988</v>
       </c>
       <c r="G9">
-        <v>30.54106288904535</v>
+        <v>24.74337889237737</v>
       </c>
       <c r="H9">
-        <v>14.64661292257668</v>
+        <v>8.816180826339483</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.39725532328552</v>
+        <v>5.811611599494388</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.61785633679192</v>
+        <v>8.206871243483501</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.56639403720446</v>
+        <v>12.04433436400812</v>
       </c>
       <c r="O9">
-        <v>22.55340662255061</v>
+        <v>14.94255511941972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.30664254789727</v>
+        <v>25.19949981522736</v>
       </c>
       <c r="C10">
-        <v>11.11481214567931</v>
+        <v>12.05579447937996</v>
       </c>
       <c r="D10">
-        <v>9.90933879147315</v>
+        <v>6.730333347140367</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.53921297711794</v>
+        <v>22.31002673241235</v>
       </c>
       <c r="G10">
-        <v>30.59574892915078</v>
+        <v>26.03816173290912</v>
       </c>
       <c r="H10">
-        <v>14.58999585269405</v>
+        <v>8.859556258990565</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.35621088959003</v>
+        <v>5.709977370399093</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.66384933621456</v>
+        <v>8.590821567168936</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.50830226268312</v>
+        <v>11.90099067560827</v>
       </c>
       <c r="O10">
-        <v>22.48936273297079</v>
+        <v>15.29023905189324</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.64759683735362</v>
+        <v>26.09077103328772</v>
       </c>
       <c r="C11">
-        <v>11.19835991752598</v>
+        <v>12.290485752519</v>
       </c>
       <c r="D11">
-        <v>9.914300964148751</v>
+        <v>6.826771488654394</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.53215355332251</v>
+        <v>22.66789557124468</v>
       </c>
       <c r="G11">
-        <v>30.6309986717108</v>
+        <v>26.64092036591146</v>
       </c>
       <c r="H11">
-        <v>14.56682061595121</v>
+        <v>8.887196799708521</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.33850826947089</v>
+        <v>5.665544612300782</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.68615161047819</v>
+        <v>8.762992002080599</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.4837059060187</v>
+        <v>11.84024390286072</v>
       </c>
       <c r="O11">
-        <v>22.46557625974493</v>
+        <v>15.46321142087644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77526837661908</v>
+        <v>26.42094730264327</v>
       </c>
       <c r="C12">
-        <v>11.22981066644165</v>
+        <v>12.37825588236446</v>
       </c>
       <c r="D12">
-        <v>9.916370688695268</v>
+        <v>6.863380167915641</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.53059030880463</v>
+        <v>22.80559641428009</v>
       </c>
       <c r="G12">
-        <v>30.64583289041795</v>
+        <v>26.87099800960793</v>
       </c>
       <c r="H12">
-        <v>14.55841601666034</v>
+        <v>8.89885160010131</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.33194348647029</v>
+        <v>5.648980427892498</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.69479113203996</v>
+        <v>8.827781313563728</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.4746543734216</v>
+        <v>11.81790883816318</v>
       </c>
       <c r="O12">
-        <v>22.45733942396168</v>
+        <v>15.5308749913952</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.74783780707149</v>
+        <v>26.35016273828495</v>
       </c>
       <c r="C13">
-        <v>11.22304577403708</v>
+        <v>12.35940282571925</v>
       </c>
       <c r="D13">
-        <v>9.915916481821151</v>
+        <v>6.855492251677797</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.53087762336305</v>
+        <v>22.77584373219881</v>
       </c>
       <c r="G13">
-        <v>30.64257210188785</v>
+        <v>26.82136771254754</v>
       </c>
       <c r="H13">
-        <v>14.56020957611143</v>
+        <v>8.896287898687913</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.33335116373154</v>
+        <v>5.652536143513675</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.69292189244637</v>
+        <v>8.813846647213968</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.47659211366009</v>
+        <v>11.82268891216949</v>
       </c>
       <c r="O13">
-        <v>22.45907907885688</v>
+        <v>15.51620578025201</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6581299407963</v>
+        <v>26.11808130153242</v>
       </c>
       <c r="C14">
-        <v>11.20095123528906</v>
+        <v>12.29772903050537</v>
       </c>
       <c r="D14">
-        <v>9.914467429494787</v>
+        <v>6.829781656164529</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.53200270137022</v>
+        <v>22.67918081824355</v>
       </c>
       <c r="G14">
-        <v>30.63218935176769</v>
+        <v>26.65981321114161</v>
       </c>
       <c r="H14">
-        <v>14.56612172007807</v>
+        <v>8.888131551948458</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.33796540150458</v>
+        <v>5.664176608919194</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.68685852355483</v>
+        <v>8.768330696710802</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.48295597177658</v>
+        <v>11.8383928249887</v>
       </c>
       <c r="O14">
-        <v>22.4648831582518</v>
+        <v>15.46873463151182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.60299046497721</v>
+        <v>25.97497242777741</v>
       </c>
       <c r="C15">
-        <v>11.18739283178629</v>
+        <v>12.2598070116625</v>
       </c>
       <c r="D15">
-        <v>9.913604626237687</v>
+        <v>6.814044089608695</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.53283638362353</v>
+        <v>22.62025492092227</v>
       </c>
       <c r="G15">
-        <v>30.62602292322359</v>
+        <v>26.56108996873824</v>
       </c>
       <c r="H15">
-        <v>14.5697914504886</v>
+        <v>8.883291747384661</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.34080981897312</v>
+        <v>5.671340873989642</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.68316968682541</v>
+        <v>8.740396366124228</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.48688819708267</v>
+        <v>11.84809981190036</v>
       </c>
       <c r="O15">
-        <v>22.46853872121933</v>
+        <v>15.43993970867862</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28416482673488</v>
+        <v>25.14022368608198</v>
       </c>
       <c r="C16">
-        <v>11.10932687735689</v>
+        <v>12.04030536226839</v>
       </c>
       <c r="D16">
-        <v>9.909041265303543</v>
+        <v>6.724044838766026</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.53982967967399</v>
+        <v>22.28694739701162</v>
       </c>
       <c r="G16">
-        <v>30.59365356232755</v>
+        <v>25.99903350283172</v>
       </c>
       <c r="H16">
-        <v>14.59156235766802</v>
+        <v>8.857913377289304</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.35738724873928</v>
+        <v>5.712917604328677</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.66241923384862</v>
+        <v>8.579515320927964</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.50994646607257</v>
+        <v>11.90505263689978</v>
       </c>
       <c r="O16">
-        <v>22.49102498449839</v>
+        <v>15.27923587410174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.08612953665052</v>
+        <v>24.61500245809338</v>
       </c>
       <c r="C17">
-        <v>11.06112143058745</v>
+        <v>11.90374003990335</v>
       </c>
       <c r="D17">
-        <v>9.906583008240528</v>
+        <v>6.669020700022765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.54609726663654</v>
+        <v>22.08641559089408</v>
       </c>
       <c r="G17">
-        <v>30.57644932006324</v>
+        <v>25.65764046881806</v>
       </c>
       <c r="H17">
-        <v>14.60557919210038</v>
+        <v>8.844406483614664</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.36780472651003</v>
+        <v>5.738886543574482</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.65003992105763</v>
+        <v>8.480144862430148</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.5245602404342</v>
+        <v>11.94115236336143</v>
       </c>
       <c r="O17">
-        <v>22.50619042882429</v>
+        <v>15.18446784927885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.97136345760324</v>
+        <v>24.30806119273109</v>
       </c>
       <c r="C18">
-        <v>11.03328497492388</v>
+        <v>11.82450764243908</v>
       </c>
       <c r="D18">
-        <v>9.905294955360333</v>
+        <v>6.637449736428644</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.5504289170824</v>
+        <v>21.97253898567319</v>
       </c>
       <c r="G18">
-        <v>30.56753069928845</v>
+        <v>25.46258326137739</v>
       </c>
       <c r="H18">
-        <v>14.61388414230387</v>
+        <v>8.837379109033904</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.37388779115013</v>
+        <v>5.753992543313016</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.64304981186066</v>
+        <v>8.422757789556291</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.53313796679237</v>
+        <v>11.96233411295754</v>
       </c>
       <c r="O18">
-        <v>22.51541643449357</v>
+        <v>15.1313521511073</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.93236136805805</v>
+        <v>24.20330138578052</v>
       </c>
       <c r="C19">
-        <v>11.02384168191557</v>
+        <v>11.79756524750247</v>
       </c>
       <c r="D19">
-        <v>9.904880505297587</v>
+        <v>6.626774482515437</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.55202034310127</v>
+        <v>21.93423520528239</v>
       </c>
       <c r="G19">
-        <v>30.56467891498154</v>
+        <v>25.39676890996344</v>
       </c>
       <c r="H19">
-        <v>14.61673775262523</v>
+        <v>8.835125547175597</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.37596309200899</v>
+        <v>5.759136192940708</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.64070556086572</v>
+        <v>8.403289311186965</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.53607184240263</v>
+        <v>11.9695769221382</v>
       </c>
       <c r="O19">
-        <v>22.51862657974385</v>
+        <v>15.11360611573727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.10730075226402</v>
+        <v>24.67141438534055</v>
       </c>
       <c r="C20">
-        <v>11.06626449049704</v>
+        <v>11.9183488160143</v>
       </c>
       <c r="D20">
-        <v>9.906831677194337</v>
+        <v>6.674870291867904</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.5453548591946</v>
+        <v>22.10761137166604</v>
       </c>
       <c r="G20">
-        <v>30.57817968023889</v>
+        <v>25.69384862952313</v>
       </c>
       <c r="H20">
-        <v>14.60406194080669</v>
+        <v>8.845767210700267</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.3666863321555</v>
+        <v>5.736104561599227</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.6513442810609</v>
+        <v>8.490747388352295</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.52298675402637</v>
+        <v>11.93726602195708</v>
       </c>
       <c r="O20">
-        <v>22.50452394488624</v>
+        <v>15.19441170342316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.6845192719975</v>
+        <v>26.18644757314639</v>
       </c>
       <c r="C21">
-        <v>11.20744614833596</v>
+        <v>12.31587443144925</v>
       </c>
       <c r="D21">
-        <v>9.914887889316216</v>
+        <v>6.837331251560144</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.53164211802849</v>
+        <v>22.70751418433002</v>
       </c>
       <c r="G21">
-        <v>30.63519874539331</v>
+        <v>26.70721726071969</v>
       </c>
       <c r="H21">
-        <v>14.56437509894157</v>
+        <v>8.890494628875256</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.33660632443498</v>
+        <v>5.660750401240755</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.68863424826285</v>
+        <v>8.781711272315199</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.48107963060777</v>
+        <v>11.83376183824641</v>
       </c>
       <c r="O21">
-        <v>22.46315743432205</v>
+        <v>15.48261912946134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.05332307745502</v>
+        <v>27.13392562280814</v>
       </c>
       <c r="C22">
-        <v>11.29861888212042</v>
+        <v>12.56923478537401</v>
       </c>
       <c r="D22">
-        <v>9.921263623171138</v>
+        <v>6.944020246051881</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.52914944365796</v>
+        <v>23.11229095089168</v>
       </c>
       <c r="G22">
-        <v>30.68112094321479</v>
+        <v>27.38009701522698</v>
       </c>
       <c r="H22">
-        <v>14.54060215840078</v>
+        <v>8.926673672758429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.31775620131318</v>
+        <v>5.613028100912506</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.71413484750691</v>
+        <v>8.969476527615178</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.45522113390881</v>
+        <v>11.77002611344329</v>
       </c>
       <c r="O22">
-        <v>22.44061415084669</v>
+        <v>15.6835965311181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.85729319825918</v>
+        <v>26.63212044551207</v>
       </c>
       <c r="C23">
-        <v>11.25006436260347</v>
+        <v>12.43461738164521</v>
       </c>
       <c r="D23">
-        <v>9.917759679999213</v>
+        <v>6.887039869572704</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.52988810962419</v>
+        <v>22.89510749147129</v>
       </c>
       <c r="G23">
-        <v>30.65582168946729</v>
+        <v>27.02004594451068</v>
       </c>
       <c r="H23">
-        <v>14.5530920498919</v>
+        <v>8.906712045914302</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.32774301014003</v>
+        <v>5.638357785346028</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.70042281459074</v>
+        <v>8.869496875309006</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.46888246574311</v>
+        <v>11.80367577309344</v>
       </c>
       <c r="O23">
-        <v>22.45223442800472</v>
+        <v>15.57516718098539</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.09773208046349</v>
+        <v>24.6459260842527</v>
       </c>
       <c r="C24">
-        <v>11.06393969336096</v>
+        <v>11.91174642425284</v>
       </c>
       <c r="D24">
-        <v>9.906718863774465</v>
+        <v>6.672225492685513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.54568823289972</v>
+        <v>22.09802435806788</v>
       </c>
       <c r="G24">
-        <v>30.57739435526984</v>
+        <v>25.67747512637525</v>
       </c>
       <c r="H24">
-        <v>14.60474712234929</v>
+        <v>8.845149731378919</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.36719166566049</v>
+        <v>5.73736174728979</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.65075418423534</v>
+        <v>8.485954785132531</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.5236975787293</v>
+        <v>11.93902170723663</v>
       </c>
       <c r="O24">
-        <v>22.50527578253326</v>
+        <v>15.18991182945219</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.2460512070159</v>
+        <v>22.31787013125993</v>
       </c>
       <c r="C25">
-        <v>10.85904361075941</v>
+        <v>11.32188717948903</v>
       </c>
       <c r="D25">
-        <v>9.899626903219394</v>
+        <v>6.443592277928934</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.59050808282389</v>
+        <v>21.29437734156348</v>
       </c>
       <c r="G25">
-        <v>30.53014687111805</v>
+        <v>24.27983600733434</v>
       </c>
       <c r="H25">
-        <v>14.66974806605624</v>
+        <v>8.806878995789519</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.41323255718859</v>
+        <v>5.850622564321455</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.60216956293792</v>
+        <v>8.063632628092522</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.58941327309739</v>
+        <v>12.10091135920699</v>
       </c>
       <c r="O25">
-        <v>22.58172027420047</v>
+        <v>14.82738771382436</v>
       </c>
     </row>
   </sheetData>
